--- a/data/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
+++ b/data/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -10002,7 +10002,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10572,7 +10572,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11720,7 +11720,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11923,7 +11923,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11962,7 +11962,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -12212,7 +12212,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12661,7 +12661,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12739,7 +12739,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -13149,7 +13149,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13922,7 +13922,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -14129,7 +14129,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -14414,7 +14414,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -15027,7 +15027,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -15066,7 +15066,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -15109,7 +15109,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -15355,7 +15355,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -15437,7 +15437,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15761,7 +15761,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -16132,7 +16132,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -16296,7 +16296,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16870,7 +16870,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16991,7 +16991,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -17362,7 +17362,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -17440,7 +17440,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -17483,7 +17483,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17729,7 +17729,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17772,7 +17772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17854,7 +17854,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17932,7 +17932,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17975,7 +17975,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -18135,7 +18135,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -18506,7 +18506,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -18584,7 +18584,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18713,7 +18713,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18873,7 +18873,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -19076,7 +19076,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -19119,7 +19119,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -19361,7 +19361,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -19404,7 +19404,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -19482,7 +19482,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -19525,7 +19525,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -19650,7 +19650,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -19689,7 +19689,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19814,7 +19814,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19974,7 +19974,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -20017,7 +20017,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -20142,7 +20142,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -20181,7 +20181,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -20220,7 +20220,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -20345,7 +20345,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -20509,7 +20509,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -20595,7 +20595,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -20634,7 +20634,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -20755,7 +20755,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -20798,7 +20798,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -20837,7 +20837,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -20880,7 +20880,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -20958,7 +20958,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -21087,7 +21087,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -21247,7 +21247,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -21329,7 +21329,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -21372,7 +21372,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -21493,7 +21493,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -21579,7 +21579,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -21618,7 +21618,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -21657,7 +21657,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -21696,7 +21696,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -21942,7 +21942,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -22028,7 +22028,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -22071,7 +22071,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -22110,7 +22110,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -22149,7 +22149,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -22188,7 +22188,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -22274,7 +22274,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -22313,7 +22313,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -22434,7 +22434,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -22477,7 +22477,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -22520,7 +22520,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -22602,7 +22602,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -22641,7 +22641,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -22680,7 +22680,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -22723,7 +22723,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -22766,7 +22766,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -22926,7 +22926,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -22969,7 +22969,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -23012,7 +23012,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -23055,7 +23055,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -23133,7 +23133,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -23215,7 +23215,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -23254,7 +23254,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -23297,7 +23297,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -23418,7 +23418,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -23461,7 +23461,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -23504,7 +23504,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -23543,7 +23543,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -23582,7 +23582,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -23664,7 +23664,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -23703,7 +23703,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -23746,7 +23746,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -23824,7 +23824,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -23867,7 +23867,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -23953,7 +23953,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -24070,7 +24070,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -24113,7 +24113,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -24152,7 +24152,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -24195,7 +24195,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -24402,7 +24402,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -24480,7 +24480,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -24562,7 +24562,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -24601,7 +24601,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -24644,7 +24644,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -24722,7 +24722,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -24765,7 +24765,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -24808,7 +24808,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -24851,7 +24851,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -24890,7 +24890,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -24929,7 +24929,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -25011,7 +25011,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -25093,7 +25093,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -25257,7 +25257,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -25300,7 +25300,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -25378,7 +25378,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -25417,7 +25417,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -25460,7 +25460,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -25503,7 +25503,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -25585,7 +25585,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -25663,7 +25663,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -25706,7 +25706,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -25792,7 +25792,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -25952,7 +25952,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -25991,7 +25991,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -26112,7 +26112,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -26155,7 +26155,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -26198,7 +26198,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -26241,7 +26241,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -26401,7 +26401,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -26444,7 +26444,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -26526,7 +26526,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -26604,7 +26604,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -26647,7 +26647,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -26690,7 +26690,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -26772,7 +26772,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -26811,7 +26811,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -26850,7 +26850,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -26924,7 +26924,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -27150,7 +27150,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -27185,7 +27185,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -27220,7 +27220,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -27298,7 +27298,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -27337,7 +27337,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -27380,7 +27380,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -27458,7 +27458,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -27501,7 +27501,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -27544,7 +27544,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -27626,7 +27626,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -27665,7 +27665,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -27704,7 +27704,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -27747,7 +27747,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -27790,7 +27790,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -27829,7 +27829,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -27872,7 +27872,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -27950,7 +27950,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -27993,7 +27993,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -28079,7 +28079,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -28118,7 +28118,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -28157,7 +28157,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -28239,7 +28239,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -28282,7 +28282,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -28485,7 +28485,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -28528,7 +28528,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -28571,7 +28571,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -28610,7 +28610,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -28649,7 +28649,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -28688,7 +28688,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -28731,7 +28731,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -28770,7 +28770,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -28813,7 +28813,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -28891,7 +28891,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -28934,7 +28934,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -28977,7 +28977,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -29020,7 +29020,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -29059,7 +29059,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -29137,7 +29137,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -29219,7 +29219,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -29262,7 +29262,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -29340,7 +29340,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -29383,7 +29383,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -29426,7 +29426,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -29469,7 +29469,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -29508,7 +29508,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -29547,7 +29547,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -29586,7 +29586,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -29629,7 +29629,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -29668,7 +29668,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -29711,7 +29711,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -29789,7 +29789,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -29832,7 +29832,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -29918,7 +29918,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -29957,7 +29957,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -30035,7 +30035,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -30078,7 +30078,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -30121,7 +30121,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -30160,7 +30160,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -30203,7 +30203,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -30281,7 +30281,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
@@ -30324,7 +30324,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -30367,7 +30367,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -30410,7 +30410,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -30449,7 +30449,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -30488,7 +30488,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -30527,7 +30527,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -30570,7 +30570,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -30613,7 +30613,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -30652,7 +30652,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -30695,7 +30695,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -30773,7 +30773,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -30816,7 +30816,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -30859,7 +30859,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -30902,7 +30902,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -30941,7 +30941,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -30980,7 +30980,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -31019,7 +31019,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -31062,7 +31062,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -31144,7 +31144,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -31222,7 +31222,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -31265,7 +31265,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -31308,7 +31308,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -31351,7 +31351,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -31390,7 +31390,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -31429,7 +31429,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -31511,7 +31511,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -31550,7 +31550,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -31593,7 +31593,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -31671,7 +31671,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -31714,7 +31714,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -31757,7 +31757,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -31800,7 +31800,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -31839,7 +31839,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -31878,7 +31878,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -31917,7 +31917,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -31960,7 +31960,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -31999,7 +31999,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -32042,7 +32042,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -32120,7 +32120,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -32163,7 +32163,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -32249,7 +32249,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -32288,7 +32288,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -32327,7 +32327,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
